--- a/FunctionPoints/FunctionPoints.xlsx
+++ b/FunctionPoints/FunctionPoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SAPDevelop\UNI\Documentation\FunctionPoints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33441219-67A4-46F7-AF40-5B07F31BAFD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B6B6FF-EAD1-43A4-82C3-1474CC3381BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{1BA7F9A4-6DC5-4275-97A7-06A5F7E0B280}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Login</t>
   </si>
@@ -67,12 +67,15 @@
   <si>
     <t>UC</t>
   </si>
+  <si>
+    <t>ACTUAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +94,14 @@
       <color rgb="FF494949"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,13 +124,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,42 +165,57 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11865982968345173"/>
+          <c:y val="0.12771313229678394"/>
+          <c:w val="0.68443910727375301"/>
+          <c:h val="0.73277066707166016"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Initial use-cases</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
+            <c:name>Trendline</c:name>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="15875" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -261,13 +288,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="10"/>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -286,7 +317,7 @@
                   <c:v>82.743077913770009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>877.65614938886006</c:v>
+                  <c:v>210.23824855133003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>555.05473277563999</c:v>
@@ -307,7 +338,7 @@
                   <c:v>18.809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.5</c:v>
+                  <c:v>22.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>33.479999999999997</c:v>
@@ -319,6 +350,86 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5289-4405-991F-1990038A6699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.479999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5FC6-4472-9C20-8B3504ECF913}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -363,7 +474,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -395,7 +506,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -417,14 +528,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -433,7 +543,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -481,7 +591,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -495,13 +605,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Function</a:t>
+                  <a:t>Function Points</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> Points</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -518,7 +623,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -540,14 +645,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -556,7 +660,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -583,6 +687,73 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81193634579461349"/>
+          <c:y val="0.4370472918983232"/>
+          <c:w val="0.1751936413353736"/>
+          <c:h val="0.32469593050188916"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -596,7 +767,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -668,7 +839,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -679,7 +850,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -692,28 +863,27 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -725,7 +895,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -744,23 +914,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -769,37 +931,53 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -809,22 +987,27 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -854,15 +1037,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -872,7 +1053,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -881,14 +1062,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -897,10 +1077,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -916,10 +1096,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -935,21 +1115,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -968,17 +1142,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -987,29 +1160,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1019,6 +1173,24 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -1030,14 +1202,14 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1045,7 +1217,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1058,6 +1230,16 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1065,10 +1247,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1083,13 +1265,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1098,14 +1280,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1126,20 +1307,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1154,31 +1334,24 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1521,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA31B22-E65F-451F-B0E7-7C4571017F53}">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,20 +1894,20 @@
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>43.5</v>
+        <v>22.77</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D18:F20" si="2">(C19-16.24)*32.195750161</f>
-        <v>877.65614938886006</v>
+        <f t="shared" ref="D19:D20" si="2">(C19-16.24)*32.195750161</f>
+        <v>210.23824855133003</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>877.65614938886006</v>
+        <v>210.23824855133003</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>0.60948343707559727</v>
+        <v>0.1459987837162014</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.35">
@@ -1761,11 +1934,60 @@
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F21" s="3">
         <f>SUM(F17:F20)</f>
-        <v>1598.1970379920399</v>
+        <v>930.77913715451007</v>
       </c>
       <c r="G21" s="2">
         <f>SUM(G17:G20)</f>
-        <v>1.1098590541611388</v>
+        <v>0.64637440080174313</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="D23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="D24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>22.77</v>
+      </c>
+      <c r="D25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="D26">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -1775,38 +1997,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{241E7BE9-21C8-46D6-BD7C-001D1FBD6756}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!L18:L18</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{39F5636E-CEA4-4987-96F0-69B67DF6187B}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!J19:J19</xm:f>
-              <xm:sqref>G12</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{8342094F-AFE0-4C4C-BA8F-044F3294E5F9}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -1843,6 +2033,38 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{39F5636E-CEA4-4987-96F0-69B67DF6187B}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!J19:J19</xm:f>
+              <xm:sqref>G12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{241E7BE9-21C8-46D6-BD7C-001D1FBD6756}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!L18:L18</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
